--- a/data/03007.xlsx
+++ b/data/03007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I293"/>
+  <dimension ref="A1:I294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11215,6 +11215,41 @@
         </is>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>03007</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>POLYMER</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I294" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
